--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="367">
   <si>
     <t xml:space="preserve">Laz Infinitive</t>
   </si>
@@ -939,6 +939,117 @@
   </si>
   <si>
     <t xml:space="preserve">çamums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yedirmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oʒ̆ilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆ilums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆iloms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆ilups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to pluck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koparmak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to shovel up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">küremek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxop̌u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xop̌ups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocoxu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucoxams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucoxops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to call someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">çağırmak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyoxu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uyoxums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to grind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">öğütmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oğuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ğurun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ölmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oʒ̆odu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆odums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">örmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oʒ̆k̆idu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆k̆idums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʒ̆k̆idups</t>
   </si>
   <si>
     <t xml:space="preserve">Category:</t>
@@ -1111,28 +1222,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1432,12 +1551,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3259,6 +3378,222 @@
       </c>
       <c r="D81" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3294,145 +3629,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="32.42"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>307</v>
+      <c r="A2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>311</v>
+      <c r="B5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>313</v>
+      <c r="A8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>314</v>
+      <c r="B9" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>315</v>
+      <c r="B10" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>316</v>
+      <c r="B11" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>317</v>
+      <c r="B12" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>318</v>
+      <c r="B13" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>319</v>
+      <c r="A14" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>321</v>
+      <c r="A15" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>323</v>
+      <c r="A16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>325</v>
+      <c r="A17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>327</v>
+      <c r="A18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>329</v>
+      <c r="A19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="368">
   <si>
     <t xml:space="preserve">Laz Infinitive</t>
   </si>
@@ -1010,9 +1010,6 @@
     <t xml:space="preserve">mkums</t>
   </si>
   <si>
-    <t xml:space="preserve">mkups</t>
-  </si>
-  <si>
     <t xml:space="preserve">to grind</t>
   </si>
   <si>
@@ -1050,6 +1047,12 @@
   </si>
   <si>
     <t xml:space="preserve">ʒ̆k̆idups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omkvu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkvups</t>
   </si>
   <si>
     <t xml:space="preserve">Category:</t>
@@ -1551,12 +1554,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE90"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3517,83 +3520,97 @@
       <c r="D87" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="6" t="s">
+      <c r="J87" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>243</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I88" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I89" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J89" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I90" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J90" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>338</v>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3635,13 +3652,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>202</v>
@@ -3660,7 +3677,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>259</v>
@@ -3671,18 +3688,18 @@
         <v>243</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +3707,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,7 +3715,7 @@
         <v>175</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +3731,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,52 +3739,52 @@
         <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Lazverbcon\laz_verb_conjugator\notebooks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1578C7-D84A-4CEF-B230-02E3954B2533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-19310" yWindow="1510" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AE$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$90</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,1376 +31,1354 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="440">
   <si>
-    <t xml:space="preserve">Laz Infinitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laz 3rd Person Singular Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laz 3rd Person Singular Present Alternative 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region Alternative 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laz 3rd Person Singular Present Alternative 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region Alternative 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish Verb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceçamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceçams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ, AŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to hit something/someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vurmak (bir şeye)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceç̌u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coç̌ams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to begin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">başlamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coxons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adında olmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cozun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diç̌irs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to require</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lazım gelmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodumu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA, PZ, AŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodumers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to put, to place (something on the floor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koymak (yere)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodvumu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodvups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doguru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digurams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ, AŞ, FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diguraps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to learn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">öğrenmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doloç̌aru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doloç̌arums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ, FA, AŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doloç̌arups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaydetmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doskidu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doskidur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, PZ, FA, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doʒ̆onu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daʒ̆onen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to think</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvaç̌irs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ, AŞ, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eç̌opu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eç̌opums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">almak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exondvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exindums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to take responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sormluluk almak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamaçamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamaçams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamaçaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to sell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geçamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geçams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geçaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geç̌k̆u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gyoç̌k̆ams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gyoç̌k̆aps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonç̌elu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ganç̌elen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gvanç̌elen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to miss someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">özlemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonʒ̆k̆u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonʒ̆k̆ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">açmak (kapı, kilit vb.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonʒ̆u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonʒ̆ams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goşinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaşinen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gvaşinen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, PZ, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to remember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatırlamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goişinams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA, AŞ, PZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goişinaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to remind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatırlatmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gyožin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k̆ai doʒ̆onu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beğenmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mebazgu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nobazgams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">žgups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to poop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sıçmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meçamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meçams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meçaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to give</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vermek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moşvacu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moişvacams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moişvacaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinlemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obgaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibgars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, FA, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to cry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ağlamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obiru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ, AŞ, FA, HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to sing/play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şarkı söylemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oçamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">çams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, PZ, FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">çaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yedirmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oç̌aru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ç̌arums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA, PZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ç̌arups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nç̌aruy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yazmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oçinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">içinems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">içinaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to know someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanımak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oçkinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uçkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bilmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oç̌k̆omu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imxors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipxors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ç̌k̆omups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to eat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oç̌opu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ç̌opums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ç̌opups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yakalamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocoxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ucoxams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ucoxops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to call someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">çağırmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oğarğalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ğarğals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ğarğalaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to speak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konuşmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oğaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ğarums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ğarups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to draw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">çizmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ognu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ognams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ognaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to hear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duymak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gorums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gorups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to look, to want</t>
-  </si>
-  <si>
-    <t xml:space="preserve">istemek, aramak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oğuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ğurun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to die</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ölmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogzu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogzams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogzaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to make something work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">çalıştırmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uçmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok̆ap̌u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk̆ap̌ams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk̆apaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koşmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kosums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kosups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to sweep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">süpürmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olafu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lafups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olak̆irdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilak̆irday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lalups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lalums</t>
+    <t>Laz Infinitive</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Laz 3rd Person Singular Present</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Laz 3rd Person Singular Present Alternative 1</t>
+  </si>
+  <si>
+    <t>Region Alternative 1</t>
+  </si>
+  <si>
+    <t>Laz 3rd Person Singular Present Alternative 2</t>
+  </si>
+  <si>
+    <t>Region Alternative 2</t>
+  </si>
+  <si>
+    <t>English Translation</t>
+  </si>
+  <si>
+    <t>Turkish Verb</t>
+  </si>
+  <si>
+    <t>ceçamu</t>
+  </si>
+  <si>
+    <t>TVE</t>
+  </si>
+  <si>
+    <t>ceçams</t>
+  </si>
+  <si>
+    <t>PZ, AŞ</t>
+  </si>
+  <si>
+    <t>to hit something/someone</t>
+  </si>
+  <si>
+    <t>vurmak (bir şeye)</t>
+  </si>
+  <si>
+    <t>ceç̌u</t>
+  </si>
+  <si>
+    <t>coç̌ams</t>
+  </si>
+  <si>
+    <t>AŞ</t>
+  </si>
+  <si>
+    <t>to begin</t>
+  </si>
+  <si>
+    <t>başlamak</t>
+  </si>
+  <si>
+    <t>coxons</t>
+  </si>
+  <si>
+    <t>IVD</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>to be called</t>
+  </si>
+  <si>
+    <t>adında olmak</t>
+  </si>
+  <si>
+    <t>cozun</t>
+  </si>
+  <si>
+    <t>diç̌irs</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>to require</t>
+  </si>
+  <si>
+    <t>lazım gelmek</t>
+  </si>
+  <si>
+    <t>dodumu</t>
+  </si>
+  <si>
+    <t>dodums</t>
+  </si>
+  <si>
+    <t>FA, PZ, AŞ</t>
+  </si>
+  <si>
+    <t>dodumers</t>
+  </si>
+  <si>
+    <t>to put, to place (something on the floor)</t>
+  </si>
+  <si>
+    <t>koymak (yere)</t>
+  </si>
+  <si>
+    <t>dodvumu</t>
+  </si>
+  <si>
+    <t>dodvups</t>
+  </si>
+  <si>
+    <t>doguru</t>
+  </si>
+  <si>
+    <t>digurams</t>
+  </si>
+  <si>
+    <t>PZ, AŞ, FA</t>
+  </si>
+  <si>
+    <t>diguraps</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>öğrenmek</t>
+  </si>
+  <si>
+    <t>doloç̌aru</t>
+  </si>
+  <si>
+    <t>doloç̌arums</t>
+  </si>
+  <si>
+    <t>PZ, FA, AŞ</t>
+  </si>
+  <si>
+    <t>doloç̌arups</t>
+  </si>
+  <si>
+    <t>to record</t>
+  </si>
+  <si>
+    <t>kaydetmek</t>
+  </si>
+  <si>
+    <t>doskidu</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>doskidur</t>
+  </si>
+  <si>
+    <t>AŞ, PZ, FA, HO</t>
+  </si>
+  <si>
+    <t>to stay</t>
+  </si>
+  <si>
+    <t>kalmak</t>
+  </si>
+  <si>
+    <t>doʒ̆onu</t>
+  </si>
+  <si>
+    <t>daʒ̆onen</t>
+  </si>
+  <si>
+    <t>FA, HO</t>
+  </si>
+  <si>
+    <t>to think</t>
+  </si>
+  <si>
+    <t>sanmak</t>
+  </si>
+  <si>
+    <t>dvaç̌irs</t>
+  </si>
+  <si>
+    <t>PZ, AŞ, HO</t>
+  </si>
+  <si>
+    <t>eç̌opu</t>
+  </si>
+  <si>
+    <t>eç̌opums</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>almak</t>
+  </si>
+  <si>
+    <t>exondvalu</t>
+  </si>
+  <si>
+    <t>exindums</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>to take responsibility</t>
+  </si>
+  <si>
+    <t>sormluluk almak</t>
+  </si>
+  <si>
+    <t>gamaçamu</t>
+  </si>
+  <si>
+    <t>gamaçams</t>
+  </si>
+  <si>
+    <t>gamaçaps</t>
+  </si>
+  <si>
+    <t>to sell</t>
+  </si>
+  <si>
+    <t>satmak</t>
+  </si>
+  <si>
+    <t>geçamu</t>
+  </si>
+  <si>
+    <t>geçams</t>
+  </si>
+  <si>
+    <t>geçaps</t>
+  </si>
+  <si>
+    <t>geç̌k̆u</t>
+  </si>
+  <si>
+    <t>gyoç̌k̆ams</t>
+  </si>
+  <si>
+    <t>gyoç̌k̆aps</t>
+  </si>
+  <si>
+    <t>gonç̌elu</t>
+  </si>
+  <si>
+    <t>ganç̌elen</t>
+  </si>
+  <si>
+    <t>gvanç̌elen</t>
+  </si>
+  <si>
+    <t>to miss someone</t>
+  </si>
+  <si>
+    <t>özlemek</t>
+  </si>
+  <si>
+    <t>gonʒ̆k̆u</t>
+  </si>
+  <si>
+    <t>gonʒ̆k̆ips</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>açmak (kapı, kilit vb.)</t>
+  </si>
+  <si>
+    <t>gonʒ̆u</t>
+  </si>
+  <si>
+    <t>gonʒ̆ams</t>
+  </si>
+  <si>
+    <t>goşinu</t>
+  </si>
+  <si>
+    <t>gaşinen</t>
+  </si>
+  <si>
+    <t>gvaşinen</t>
+  </si>
+  <si>
+    <t>AŞ, PZ, HO</t>
+  </si>
+  <si>
+    <t>to remember</t>
+  </si>
+  <si>
+    <t>hatırlamak</t>
+  </si>
+  <si>
+    <t>goişinams</t>
+  </si>
+  <si>
+    <t>FA, AŞ, PZ</t>
+  </si>
+  <si>
+    <t>goişinaps</t>
+  </si>
+  <si>
+    <t>to remind</t>
+  </si>
+  <si>
+    <t>hatırlatmak</t>
+  </si>
+  <si>
+    <t>gyožin</t>
+  </si>
+  <si>
+    <t>k̆ai doʒ̆onu</t>
+  </si>
+  <si>
+    <t>to like</t>
+  </si>
+  <si>
+    <t>beğenmek</t>
+  </si>
+  <si>
+    <t>mebazgu</t>
+  </si>
+  <si>
+    <t>nobazgams</t>
+  </si>
+  <si>
+    <t>žgups</t>
+  </si>
+  <si>
+    <t>to poop</t>
+  </si>
+  <si>
+    <t>sıçmak</t>
+  </si>
+  <si>
+    <t>meçamu</t>
+  </si>
+  <si>
+    <t>meçams</t>
+  </si>
+  <si>
+    <t>meçaps</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>vermek</t>
+  </si>
+  <si>
+    <t>moşvacu</t>
+  </si>
+  <si>
+    <t>moişvacams</t>
+  </si>
+  <si>
+    <t>moişvacaps</t>
+  </si>
+  <si>
+    <t>to rest</t>
+  </si>
+  <si>
+    <t>dinlemek</t>
+  </si>
+  <si>
+    <t>obgaru</t>
+  </si>
+  <si>
+    <t>ibgars</t>
+  </si>
+  <si>
+    <t>AŞ, FA, HO</t>
+  </si>
+  <si>
+    <t>to cry</t>
+  </si>
+  <si>
+    <t>ağlamak</t>
+  </si>
+  <si>
+    <t>obiru</t>
+  </si>
+  <si>
+    <t>ibirs</t>
+  </si>
+  <si>
+    <t>PZ, AŞ, FA, HO</t>
+  </si>
+  <si>
+    <t>to sing/play</t>
+  </si>
+  <si>
+    <t>şarkı söylemek</t>
+  </si>
+  <si>
+    <t>oçamu</t>
+  </si>
+  <si>
+    <t>çams</t>
+  </si>
+  <si>
+    <t>AŞ, PZ, FA</t>
+  </si>
+  <si>
+    <t>çaps</t>
+  </si>
+  <si>
+    <t>to feed</t>
+  </si>
+  <si>
+    <t>yedirmek</t>
+  </si>
+  <si>
+    <t>oç̌aru</t>
+  </si>
+  <si>
+    <t>ç̌arums</t>
+  </si>
+  <si>
+    <t>FA, PZ</t>
+  </si>
+  <si>
+    <t>ç̌arups</t>
+  </si>
+  <si>
+    <t>nç̌aruy</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>yazmak</t>
+  </si>
+  <si>
+    <t>oçinu</t>
+  </si>
+  <si>
+    <t>içinems</t>
+  </si>
+  <si>
+    <t>içinaps</t>
+  </si>
+  <si>
+    <t>to know someone</t>
+  </si>
+  <si>
+    <t>tanımak</t>
+  </si>
+  <si>
+    <t>oçkinu</t>
+  </si>
+  <si>
+    <t>uçkin</t>
+  </si>
+  <si>
+    <t>to know</t>
+  </si>
+  <si>
+    <t>bilmek</t>
+  </si>
+  <si>
+    <t>oç̌k̆omu</t>
+  </si>
+  <si>
+    <t>imxors</t>
+  </si>
+  <si>
+    <t>ipxors</t>
+  </si>
+  <si>
+    <t>ç̌k̆omups</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>yemek</t>
+  </si>
+  <si>
+    <t>oç̌opu</t>
+  </si>
+  <si>
+    <t>ç̌opums</t>
+  </si>
+  <si>
+    <t>ç̌opups</t>
+  </si>
+  <si>
+    <t>to catch</t>
+  </si>
+  <si>
+    <t>yakalamak</t>
+  </si>
+  <si>
+    <t>ocoxu</t>
+  </si>
+  <si>
+    <t>ucoxams</t>
+  </si>
+  <si>
+    <t>ucoxops</t>
+  </si>
+  <si>
+    <t>to call someone</t>
+  </si>
+  <si>
+    <t>çağırmak</t>
+  </si>
+  <si>
+    <t>oğarğalu</t>
+  </si>
+  <si>
+    <t>ğarğals</t>
+  </si>
+  <si>
+    <t>ğarğalaps</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>konuşmak</t>
+  </si>
+  <si>
+    <t>oğaru</t>
+  </si>
+  <si>
+    <t>ğarums</t>
+  </si>
+  <si>
+    <t>ğarups</t>
+  </si>
+  <si>
+    <t>to draw</t>
+  </si>
+  <si>
+    <t>çizmek</t>
+  </si>
+  <si>
+    <t>ognu</t>
+  </si>
+  <si>
+    <t>ognams</t>
+  </si>
+  <si>
+    <t>ognaps</t>
+  </si>
+  <si>
+    <t>to hear</t>
+  </si>
+  <si>
+    <t>duymak</t>
+  </si>
+  <si>
+    <t>ogoru</t>
+  </si>
+  <si>
+    <t>gorums</t>
+  </si>
+  <si>
+    <t>gorups</t>
+  </si>
+  <si>
+    <t>to look, to want</t>
+  </si>
+  <si>
+    <t>istemek, aramak</t>
+  </si>
+  <si>
+    <t>oğuru</t>
+  </si>
+  <si>
+    <t>ğurun</t>
+  </si>
+  <si>
+    <t>to die</t>
+  </si>
+  <si>
+    <t>ölmek</t>
+  </si>
+  <si>
+    <t>ogzu</t>
+  </si>
+  <si>
+    <t>ogzams</t>
+  </si>
+  <si>
+    <t>ogzaps</t>
+  </si>
+  <si>
+    <t>to make something work</t>
+  </si>
+  <si>
+    <t>çalıştırmak</t>
+  </si>
+  <si>
+    <t>oju</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>to fly</t>
+  </si>
+  <si>
+    <t>uçmak</t>
+  </si>
+  <si>
+    <t>ok̆ap̌u</t>
+  </si>
+  <si>
+    <t>uk̆ap̌ams</t>
+  </si>
+  <si>
+    <t>uk̆apaps</t>
+  </si>
+  <si>
+    <t>to run</t>
+  </si>
+  <si>
+    <t>koşmak</t>
+  </si>
+  <si>
+    <t>okosu</t>
+  </si>
+  <si>
+    <t>kosums</t>
+  </si>
+  <si>
+    <t>kosups</t>
+  </si>
+  <si>
+    <t>to sweep</t>
+  </si>
+  <si>
+    <t>süpürmek</t>
+  </si>
+  <si>
+    <t>olafu</t>
+  </si>
+  <si>
+    <t>lafups</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>olak̆irdu</t>
+  </si>
+  <si>
+    <t>ilak̆irday</t>
+  </si>
+  <si>
+    <t>olalu</t>
+  </si>
+  <si>
+    <t>lalups</t>
+  </si>
+  <si>
+    <t>lalums</t>
   </si>
   <si>
     <t xml:space="preserve">to bark, to talk nonsene </t>
   </si>
   <si>
-    <t xml:space="preserve">havlamak, boş konuşmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olimbu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alimben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, PZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omçviru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imçvirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to swim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yüzmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omgaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to cry, to weep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to grind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">öğütmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omkvu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkvups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omşkironu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amşkironen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omşkorinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amşkorinen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be hungry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acıkmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onç̌aru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nç̌arum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onciru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uyumak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onçiru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inçirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onçviru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inçvirs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onk̆ap̌u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unk̆ap̌ams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op̌aramitu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip̌aramitams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip̌aramitaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oputxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">putxun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oqvapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be something/someone (to someone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biri için birşey olmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iqven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oropumu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aoropen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osinapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isinapams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isinapay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oşinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şinems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şinums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şinaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to respect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saygı göstermek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oskedinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osk̆edinams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oskedinaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oskedinams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to raise, to keep someone alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">besleyerek yaşatmak, yaşamda tutmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oskidu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skidun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yaşamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oşk̆omu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslebinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islebinams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osteru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oynamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stibums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AŞ, FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stibups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oşu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">içmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ot̆ağodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t̆rağodums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to sing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ot̆axu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t̆axums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t̆axups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kırmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otiru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tirups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taşımak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkumers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">söylemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ot̆k̆u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it̆urs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ovapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxap̌aru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ixap̌ars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ikums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ikoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yapmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxop̌u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xop̌ups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to shovel up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">küremek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxoʒ̆onu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxoʒ̆onams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxoʒ̆onaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to understand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anlamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxtimu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxvenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ikips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oyapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to become</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oyoxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uyoxums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oʒ̆ilu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆ilums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆iloms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆ilups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to pluck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koparmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oʒ̆k̆idu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆k̆idums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆k̆idups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">örmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oʒ̆k̆unu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aʒ̆k̆unen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to ache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ağrımak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆k̆ups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oʒ̆odu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʒ̆odums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oʒ̆unu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aʒ̆unen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ren</t>
+    <t>havlamak, boş konuşmak</t>
+  </si>
+  <si>
+    <t>olimbu</t>
+  </si>
+  <si>
+    <t>alimben</t>
+  </si>
+  <si>
+    <t>PZ</t>
+  </si>
+  <si>
+    <t>to love</t>
+  </si>
+  <si>
+    <t>sevmek</t>
+  </si>
+  <si>
+    <t>olva</t>
+  </si>
+  <si>
+    <t>ulun</t>
+  </si>
+  <si>
+    <t>AŞ, PZ</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>gitmek</t>
+  </si>
+  <si>
+    <t>omçviru</t>
+  </si>
+  <si>
+    <t>imçvirs</t>
+  </si>
+  <si>
+    <t>to swim</t>
+  </si>
+  <si>
+    <t>yüzmek</t>
+  </si>
+  <si>
+    <t>omgaru</t>
+  </si>
+  <si>
+    <t>imgars</t>
+  </si>
+  <si>
+    <t>to cry, to weep</t>
+  </si>
+  <si>
+    <t>omku</t>
+  </si>
+  <si>
+    <t>mkums</t>
+  </si>
+  <si>
+    <t>to grind</t>
+  </si>
+  <si>
+    <t>öğütmek</t>
+  </si>
+  <si>
+    <t>omkvu</t>
+  </si>
+  <si>
+    <t>mkvups</t>
+  </si>
+  <si>
+    <t>omşkironu</t>
+  </si>
+  <si>
+    <t>amşkironen</t>
+  </si>
+  <si>
+    <t>omşkorinu</t>
+  </si>
+  <si>
+    <t>amşkorinen</t>
+  </si>
+  <si>
+    <t>to be hungry</t>
+  </si>
+  <si>
+    <t>acıkmak</t>
+  </si>
+  <si>
+    <t>onç̌aru</t>
+  </si>
+  <si>
+    <t>nç̌arum</t>
+  </si>
+  <si>
+    <t>onciru</t>
+  </si>
+  <si>
+    <t>incirs</t>
+  </si>
+  <si>
+    <t>to sleep</t>
+  </si>
+  <si>
+    <t>uyumak</t>
+  </si>
+  <si>
+    <t>onçiru</t>
+  </si>
+  <si>
+    <t>inçirs</t>
+  </si>
+  <si>
+    <t>onçviru</t>
+  </si>
+  <si>
+    <t>inçvirs</t>
+  </si>
+  <si>
+    <t>onk̆ap̌u</t>
+  </si>
+  <si>
+    <t>unk̆ap̌ams</t>
+  </si>
+  <si>
+    <t>op̌aramitu</t>
+  </si>
+  <si>
+    <t>ip̌aramitams</t>
+  </si>
+  <si>
+    <t>ip̌aramitaps</t>
+  </si>
+  <si>
+    <t>oputxu</t>
+  </si>
+  <si>
+    <t>putxun</t>
+  </si>
+  <si>
+    <t>oqvapu</t>
+  </si>
+  <si>
+    <t>aqven</t>
+  </si>
+  <si>
+    <t>to be something/someone (to someone)</t>
+  </si>
+  <si>
+    <t>biri için birşey olmak</t>
+  </si>
+  <si>
+    <t>iqven</t>
+  </si>
+  <si>
+    <t>oropumu</t>
+  </si>
+  <si>
+    <t>aoropen</t>
+  </si>
+  <si>
+    <t>osinapu</t>
+  </si>
+  <si>
+    <t>isinapams</t>
+  </si>
+  <si>
+    <t>isinapay</t>
+  </si>
+  <si>
+    <t>oşinu</t>
+  </si>
+  <si>
+    <t>şinems</t>
+  </si>
+  <si>
+    <t>şinums</t>
+  </si>
+  <si>
+    <t>şinaps</t>
+  </si>
+  <si>
+    <t>to respect</t>
+  </si>
+  <si>
+    <t>saygı göstermek</t>
+  </si>
+  <si>
+    <t>oskedinu</t>
+  </si>
+  <si>
+    <t>osk̆edinams</t>
+  </si>
+  <si>
+    <t>oskedinaps</t>
+  </si>
+  <si>
+    <t>oskedinams</t>
+  </si>
+  <si>
+    <t>to raise, to keep someone alive</t>
+  </si>
+  <si>
+    <t>besleyerek yaşatmak, yaşamda tutmak</t>
+  </si>
+  <si>
+    <t>oskidu</t>
+  </si>
+  <si>
+    <t>skidun</t>
+  </si>
+  <si>
+    <t>to live</t>
+  </si>
+  <si>
+    <t>yaşamak</t>
+  </si>
+  <si>
+    <t>oşk̆omu</t>
+  </si>
+  <si>
+    <t>oslebinu</t>
+  </si>
+  <si>
+    <t>islebinams</t>
+  </si>
+  <si>
+    <t>osteru</t>
+  </si>
+  <si>
+    <t>isters</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>oynamak</t>
+  </si>
+  <si>
+    <t>ostibu</t>
+  </si>
+  <si>
+    <t>stibums</t>
+  </si>
+  <si>
+    <t>AŞ, FA</t>
+  </si>
+  <si>
+    <t>stibups</t>
+  </si>
+  <si>
+    <t>oşu</t>
+  </si>
+  <si>
+    <t>şums</t>
+  </si>
+  <si>
+    <t>şups</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>içmek</t>
+  </si>
+  <si>
+    <t>ot̆ağodu</t>
+  </si>
+  <si>
+    <t>t̆rağodums</t>
+  </si>
+  <si>
+    <t>to sing</t>
+  </si>
+  <si>
+    <t>otanu</t>
+  </si>
+  <si>
+    <t>ot̆axu</t>
+  </si>
+  <si>
+    <t>t̆axums</t>
+  </si>
+  <si>
+    <t>t̆axups</t>
+  </si>
+  <si>
+    <t>to break</t>
+  </si>
+  <si>
+    <t>kırmak</t>
+  </si>
+  <si>
+    <t>otiru</t>
+  </si>
+  <si>
+    <t>tirups</t>
+  </si>
+  <si>
+    <t>taşımak</t>
+  </si>
+  <si>
+    <t>otku</t>
+  </si>
+  <si>
+    <t>tkums</t>
+  </si>
+  <si>
+    <t>tkumers</t>
+  </si>
+  <si>
+    <t>tkups</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>söylemek</t>
+  </si>
+  <si>
+    <t>ot̆k̆u</t>
+  </si>
+  <si>
+    <t>it̆urs</t>
+  </si>
+  <si>
+    <t>otoru</t>
+  </si>
+  <si>
+    <t>torums</t>
+  </si>
+  <si>
+    <t>to carry</t>
+  </si>
+  <si>
+    <t>ovapu</t>
+  </si>
+  <si>
+    <t>aven</t>
+  </si>
+  <si>
+    <t>iven</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>olmak</t>
+  </si>
+  <si>
+    <t>oxap̌aru</t>
+  </si>
+  <si>
+    <t>ixap̌ars</t>
+  </si>
+  <si>
+    <t>oxenu</t>
+  </si>
+  <si>
+    <t>ikums</t>
+  </si>
+  <si>
+    <t>ikoms</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>yapmak</t>
+  </si>
+  <si>
+    <t>oxop̌u</t>
+  </si>
+  <si>
+    <t>xop̌ups</t>
+  </si>
+  <si>
+    <t>to shovel up</t>
+  </si>
+  <si>
+    <t>küremek</t>
+  </si>
+  <si>
+    <t>oxoʒ̆onu</t>
+  </si>
+  <si>
+    <t>oxoʒ̆onams</t>
+  </si>
+  <si>
+    <t>oxoʒ̆onaps</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>anlamak</t>
+  </si>
+  <si>
+    <t>oxtimu</t>
+  </si>
+  <si>
+    <t>oxu</t>
+  </si>
+  <si>
+    <t>xums</t>
+  </si>
+  <si>
+    <t>oxvenu</t>
+  </si>
+  <si>
+    <t>ikips</t>
+  </si>
+  <si>
+    <t>oyapu</t>
+  </si>
+  <si>
+    <t>ayen</t>
+  </si>
+  <si>
+    <t>aen</t>
+  </si>
+  <si>
+    <t>iyen</t>
+  </si>
+  <si>
+    <t>to become</t>
+  </si>
+  <si>
+    <t>oyoxu</t>
+  </si>
+  <si>
+    <t>uyoxums</t>
+  </si>
+  <si>
+    <t>oʒ̆ilu</t>
+  </si>
+  <si>
+    <t>ʒ̆ilums</t>
+  </si>
+  <si>
+    <t>ʒ̆iloms</t>
+  </si>
+  <si>
+    <t>ʒ̆ilups</t>
+  </si>
+  <si>
+    <t>to pluck</t>
+  </si>
+  <si>
+    <t>koparmak</t>
+  </si>
+  <si>
+    <t>oʒ̆k̆idu</t>
+  </si>
+  <si>
+    <t>ʒ̆k̆idums</t>
+  </si>
+  <si>
+    <t>ʒ̆k̆idups</t>
+  </si>
+  <si>
+    <t>to build</t>
+  </si>
+  <si>
+    <t>örmek</t>
+  </si>
+  <si>
+    <t>oʒ̆k̆unu</t>
+  </si>
+  <si>
+    <t>aʒ̆k̆unen</t>
+  </si>
+  <si>
+    <t>to ache</t>
+  </si>
+  <si>
+    <t>ağrımak</t>
+  </si>
+  <si>
+    <t>ʒ̆k̆ups</t>
+  </si>
+  <si>
+    <t>oʒ̆odu</t>
+  </si>
+  <si>
+    <t>ʒ̆odums</t>
+  </si>
+  <si>
+    <t>oʒ̆unu</t>
+  </si>
+  <si>
+    <t>aʒ̆unen</t>
+  </si>
+  <si>
+    <t>ren</t>
   </si>
   <si>
     <t xml:space="preserve"> FA, HO</t>
   </si>
   <si>
-    <t xml:space="preserve">on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uğun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var (cansız)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to want</t>
-  </si>
-  <si>
-    <t xml:space="preserve">istemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uqonun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uyonun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var (canlı)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xe ok̆oç̌apxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xe ok̆oç̌apxams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xe ok̆oç̌apxaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to applause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alkışlamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeç̌opu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeç̌opups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meşvelu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şvelams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">şvelaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yardım etmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transitive Verb Ergative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t̆axums/t̆axups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intrusional Verb Dative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transitive Verb Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions have to be specified for the current code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fındıklı Arhavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ardeşen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopa</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>uğun</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>var (cansız)</t>
+  </si>
+  <si>
+    <t>unon</t>
+  </si>
+  <si>
+    <t>to want</t>
+  </si>
+  <si>
+    <t>istemek</t>
+  </si>
+  <si>
+    <t>uqonun</t>
+  </si>
+  <si>
+    <t>uyonun</t>
+  </si>
+  <si>
+    <t>var (canlı)</t>
+  </si>
+  <si>
+    <t>xe ok̆oç̌apxu</t>
+  </si>
+  <si>
+    <t>xe ok̆oç̌apxams</t>
+  </si>
+  <si>
+    <t>xe ok̆oç̌apxaps</t>
+  </si>
+  <si>
+    <t>to applause</t>
+  </si>
+  <si>
+    <t>alkışlamak</t>
+  </si>
+  <si>
+    <t>yeç̌opu</t>
+  </si>
+  <si>
+    <t>yeç̌opups</t>
+  </si>
+  <si>
+    <t>meşvelu</t>
+  </si>
+  <si>
+    <t>şvelams</t>
+  </si>
+  <si>
+    <t>şvelaps</t>
+  </si>
+  <si>
+    <t>to help</t>
+  </si>
+  <si>
+    <t>yardım etmek</t>
+  </si>
+  <si>
+    <t>Category:</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Transitive Verb Ergative</t>
+  </si>
+  <si>
+    <t>t̆axums/t̆axups</t>
+  </si>
+  <si>
+    <t>Intrusional Verb Dative</t>
+  </si>
+  <si>
+    <t>Transitive Verb Movement</t>
+  </si>
+  <si>
+    <t>Regions:</t>
+  </si>
+  <si>
+    <t>Regions have to be specified for the current code</t>
+  </si>
+  <si>
+    <t>Fındıklı Arhavi</t>
+  </si>
+  <si>
+    <t>Pazar</t>
+  </si>
+  <si>
+    <t>Ardeşen</t>
+  </si>
+  <si>
+    <t>Hopa</t>
   </si>
   <si>
     <t xml:space="preserve">Batı </t>
   </si>
   <si>
-    <t xml:space="preserve">All regions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential change to regions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fındıklı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arhavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fındıklı-Arhavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pazar Ardeşen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÇHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çxala-Hopa</t>
+    <t>All regions</t>
+  </si>
+  <si>
+    <t>Potential change to regions:</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Fındıklı</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Arhavi</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>Fındıklı-Arhavi</t>
+  </si>
+  <si>
+    <t>PAŞ</t>
+  </si>
+  <si>
+    <t>Pazar Ardeşen</t>
+  </si>
+  <si>
+    <t>ÇHO</t>
+  </si>
+  <si>
+    <t>Çxala-Hopa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1408,7 +1391,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1416,97 +1399,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9C0006"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1518,6 +1428,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1576,66 +1487,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1665,7 +1588,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1689,7 +1612,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1749,30 +1672,28 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1746,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1905,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1949,7 +1870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1971,7 +1892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1984,10 +1905,10 @@
       <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1997,7 +1918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -2010,10 +1931,10 @@
       <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2023,7 +1944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -2043,7 +1964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -2063,7 +1984,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -2083,7 +2004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -2103,7 +2024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -2123,7 +2044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2136,10 +2057,10 @@
       <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -2149,7 +2070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -2175,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -2188,10 +2109,10 @@
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2201,7 +2122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -2214,10 +2135,10 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>63</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2227,7 +2148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -2247,7 +2168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -2267,7 +2188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -2280,10 +2201,10 @@
       <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -2293,7 +2214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2306,10 +2227,10 @@
       <c r="D23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -2319,7 +2240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>106</v>
       </c>
@@ -2339,7 +2260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2359,33 +2280,33 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>115</v>
       </c>
@@ -2398,10 +2319,10 @@
       <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -2411,7 +2332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -2424,10 +2345,10 @@
       <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -2437,7 +2358,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -2482,7 +2403,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>130</v>
       </c>
@@ -2506,7 +2427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>135</v>
       </c>
@@ -2519,20 +2440,20 @@
       <c r="D31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>141</v>
       </c>
@@ -2564,7 +2485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>148</v>
       </c>
@@ -2592,7 +2513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>153</v>
       </c>
@@ -2612,7 +2533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>157</v>
       </c>
@@ -2644,7 +2565,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>163</v>
       </c>
@@ -2654,7 +2575,7 @@
       <c r="C36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2670,33 +2591,33 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
         <v>171</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -2722,7 +2643,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -2748,7 +2669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>183</v>
       </c>
@@ -2774,7 +2695,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>188</v>
       </c>
@@ -2800,27 +2721,27 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" t="s">
         <v>132</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" t="s">
         <v>195</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
@@ -2833,10 +2754,10 @@
       <c r="D43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -2846,7 +2767,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>202</v>
       </c>
@@ -2866,7 +2787,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>206</v>
       </c>
@@ -2894,7 +2815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>211</v>
       </c>
@@ -2920,7 +2841,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>216</v>
       </c>
@@ -2944,7 +2865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>219</v>
       </c>
@@ -2968,33 +2889,33 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" t="s">
         <v>224</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>226</v>
       </c>
@@ -3014,7 +2935,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>231</v>
       </c>
@@ -3034,7 +2955,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
@@ -3058,7 +2979,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>240</v>
       </c>
@@ -3103,47 +3024,47 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" t="s">
         <v>245</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>247</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
         <v>245</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>249</v>
       </c>
@@ -3159,7 +3080,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>251</v>
       </c>
@@ -3179,7 +3100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>255</v>
       </c>
@@ -3199,7 +3120,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>257</v>
       </c>
@@ -3223,7 +3144,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>261</v>
       </c>
@@ -3247,7 +3168,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>263</v>
       </c>
@@ -3267,7 +3188,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>265</v>
       </c>
@@ -3291,7 +3212,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>267</v>
       </c>
@@ -3317,7 +3238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>270</v>
       </c>
@@ -3337,7 +3258,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>272</v>
       </c>
@@ -3357,7 +3278,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>272</v>
       </c>
@@ -3373,7 +3294,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>277</v>
       </c>
@@ -3393,7 +3314,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>279</v>
       </c>
@@ -3419,7 +3340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>282</v>
       </c>
@@ -3432,16 +3353,16 @@
       <c r="D69" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" t="s">
         <v>284</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" t="s">
         <v>28</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" t="s">
         <v>285</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" t="s">
         <v>23</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -3451,7 +3372,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>288</v>
       </c>
@@ -3464,16 +3385,16 @@
       <c r="D70" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
         <v>291</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -3483,7 +3404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>294</v>
       </c>
@@ -3503,7 +3424,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>298</v>
       </c>
@@ -3527,21 +3448,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>299</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
         <v>300</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>301</v>
       </c>
@@ -3565,27 +3486,27 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
         <v>306</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" t="s">
         <v>307</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" t="s">
         <v>308</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>309</v>
       </c>
@@ -3613,7 +3534,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>314</v>
       </c>
@@ -3637,15 +3558,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>318</v>
       </c>
@@ -3658,10 +3579,10 @@
       <c r="D79" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" t="s">
         <v>320</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" t="s">
         <v>23</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -3671,7 +3592,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>323</v>
       </c>
@@ -3689,7 +3610,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>326</v>
       </c>
@@ -3721,7 +3642,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>332</v>
       </c>
@@ -3741,7 +3662,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>334</v>
       </c>
@@ -3761,7 +3682,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>337</v>
       </c>
@@ -3781,7 +3702,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>337</v>
       </c>
@@ -3801,7 +3722,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>342</v>
       </c>
@@ -3825,7 +3746,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>344</v>
       </c>
@@ -3853,27 +3774,27 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>349</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
         <v>350</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="5" t="s">
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
         <v>351</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>353</v>
       </c>
@@ -3886,10 +3807,10 @@
       <c r="D89" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" t="s">
         <v>355</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -3899,7 +3820,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>358</v>
       </c>
@@ -3909,7 +3830,7 @@
       <c r="C90" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" t="s">
         <v>59</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -3919,27 +3840,27 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
         <v>360</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" t="s">
         <v>41</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" t="s">
         <v>351</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="J91" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>361</v>
       </c>
@@ -3963,7 +3884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>363</v>
       </c>
@@ -3976,10 +3897,10 @@
       <c r="D93" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" t="s">
         <v>365</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -3989,7 +3910,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>363</v>
       </c>
@@ -4009,165 +3930,165 @@
         <v>341</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>368</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
         <v>369</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" t="s">
         <v>171</v>
       </c>
-      <c r="J95" s="5" t="s">
+      <c r="J95" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>370</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
         <v>371</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" t="s">
         <v>372</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" t="s">
         <v>373</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" s="5" t="s">
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
         <v>374</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J96" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>376</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
         <v>377</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" t="s">
         <v>378</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" s="5" t="s">
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
         <v>379</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="J97" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>381</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" t="s">
         <v>382</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" s="5" t="s">
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
         <v>383</v>
       </c>
-      <c r="J98" s="5" t="s">
+      <c r="J98" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
         <v>385</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" s="5" t="s">
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
         <v>383</v>
       </c>
-      <c r="J99" s="5" t="s">
+      <c r="J99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>386</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
         <v>387</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I100" t="s">
         <v>379</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J100" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>388</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" t="s">
         <v>389</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" t="s">
         <v>41</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="I101" t="s">
         <v>383</v>
       </c>
-      <c r="J101" s="5" t="s">
+      <c r="J101" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>390</v>
       </c>
@@ -4180,10 +4101,10 @@
       <c r="D102" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" t="s">
         <v>392</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" t="s">
         <v>233</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -4193,7 +4114,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>393</v>
       </c>
@@ -4213,7 +4134,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>396</v>
       </c>
@@ -4233,7 +4154,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>399</v>
       </c>
@@ -4253,7 +4174,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>400</v>
       </c>
@@ -4273,7 +4194,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>402</v>
       </c>
@@ -4299,7 +4220,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>407</v>
       </c>
@@ -4319,222 +4240,208 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>409</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
         <v>410</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" t="s">
         <v>411</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" s="5" t="s">
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
         <v>412</v>
       </c>
-      <c r="J109" s="5" t="s">
+      <c r="J109" t="s">
         <v>413</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE90">
-    <sortState ref="A2:AE90">
-      <sortCondition ref="A2:A90" customList=""/>
+  <autoFilter ref="A1:AE90" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE90">
+      <sortCondition ref="A2:A90"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.86"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>417</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>432</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>434</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>436</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>439</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Lazverbcon\laz_verb_conjugator\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1578C7-D84A-4CEF-B230-02E3954B2533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F9D08-9596-42F9-9CF8-F12CE8F2AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1510" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,12 +1261,6 @@
     <t>meşvelu</t>
   </si>
   <si>
-    <t>şvelams</t>
-  </si>
-  <si>
-    <t>şvelaps</t>
-  </si>
-  <si>
     <t>to help</t>
   </si>
   <si>
@@ -1349,6 +1343,12 @@
   </si>
   <si>
     <t>Çxala-Hopa</t>
+  </si>
+  <si>
+    <t>nuşvelams</t>
+  </si>
+  <si>
+    <t>nuşvelaps</t>
   </si>
 </sst>
 </file>
@@ -4248,22 +4248,22 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
+        <v>410</v>
+      </c>
+      <c r="J109" t="s">
         <v>411</v>
-      </c>
-      <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" t="s">
-        <v>412</v>
-      </c>
-      <c r="J109" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4297,13 +4297,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" t="s">
         <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4311,10 +4311,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,7 +4322,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -4333,7 +4333,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4392,52 +4392,52 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Lazverbcon\laz_verb_conjugator\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F9D08-9596-42F9-9CF8-F12CE8F2AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2910D6D-A5AB-448A-A85A-1B5FF6C56C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1510" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,9 +862,6 @@
     <t>iqven</t>
   </si>
   <si>
-    <t>oropumu</t>
-  </si>
-  <si>
     <t>aoropen</t>
   </si>
   <si>
@@ -1349,6 +1346,9 @@
   </si>
   <si>
     <t>nuşvelaps</t>
+  </si>
+  <si>
+    <t>oropu</t>
   </si>
 </sst>
 </file>
@@ -1686,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3296,13 +3296,13 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>277</v>
+        <v>439</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>18</v>
@@ -3316,19 +3316,19 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3342,91 +3342,91 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F69" t="s">
         <v>28</v>
       </c>
       <c r="G69" t="s">
+        <v>284</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
         <v>290</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>291</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>11</v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
         <v>299</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>300</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>59</v>
@@ -3480,27 +3480,27 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>304</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
         <v>305</v>
       </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>306</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>307</v>
-      </c>
-      <c r="E75" t="s">
-        <v>308</v>
       </c>
       <c r="F75" t="s">
         <v>23</v>
@@ -3508,19 +3508,19 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>23</v>
@@ -3528,21 +3528,21 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3552,7 +3552,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>134</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -3568,129 +3568,129 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E79" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="3"/>
       <c r="J80" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>28</v>
@@ -3704,33 +3704,33 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -3748,19 +3748,19 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>28</v>
@@ -3768,61 +3768,61 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
         <v>349</v>
       </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
         <v>350</v>
       </c>
-      <c r="D88" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>351</v>
-      </c>
-      <c r="J88" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E89" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>52</v>
@@ -3842,33 +3842,33 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
         <v>359</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
-        <v>360</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
       </c>
       <c r="I91" t="s">
+        <v>350</v>
+      </c>
+      <c r="J91" t="s">
         <v>351</v>
-      </c>
-      <c r="J91" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
@@ -3878,67 +3878,67 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>233</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>367</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
         <v>368</v>
-      </c>
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
-        <v>369</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -3952,283 +3952,283 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
         <v>370</v>
-      </c>
-      <c r="B96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" t="s">
-        <v>371</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F96" t="s">
         <v>28</v>
       </c>
       <c r="G96" t="s">
+        <v>372</v>
+      </c>
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
         <v>373</v>
       </c>
-      <c r="H96" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>374</v>
-      </c>
-      <c r="J96" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
         <v>376</v>
-      </c>
-      <c r="B97" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" t="s">
-        <v>377</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
         <v>378</v>
       </c>
-      <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>379</v>
-      </c>
-      <c r="J97" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
         <v>382</v>
       </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>383</v>
-      </c>
-      <c r="J98" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
       </c>
       <c r="I99" t="s">
+        <v>382</v>
+      </c>
+      <c r="J99" t="s">
         <v>383</v>
-      </c>
-      <c r="J99" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
         <v>386</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s">
-        <v>387</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
       <c r="I100" t="s">
+        <v>378</v>
+      </c>
+      <c r="J100" t="s">
         <v>379</v>
-      </c>
-      <c r="J100" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
       </c>
       <c r="I101" t="s">
+        <v>382</v>
+      </c>
+      <c r="J101" t="s">
         <v>383</v>
-      </c>
-      <c r="J101" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" t="s">
         <v>391</v>
-      </c>
-      <c r="E102" t="s">
-        <v>392</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
       </c>
       <c r="I102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J102" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I103" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J103" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I104" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J104" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I105" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>23</v>
@@ -4242,28 +4242,28 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F109" t="s">
         <v>23</v>
       </c>
       <c r="I109" t="s">
+        <v>409</v>
+      </c>
+      <c r="J109" t="s">
         <v>410</v>
-      </c>
-      <c r="J109" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4297,13 +4297,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
         <v>412</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>413</v>
-      </c>
-      <c r="C2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4311,10 +4311,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" t="s">
         <v>415</v>
-      </c>
-      <c r="C3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,7 +4322,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -4333,7 +4333,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
         <v>419</v>
-      </c>
-      <c r="C8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4392,52 +4392,52 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" t="s">
         <v>428</v>
-      </c>
-      <c r="B20" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
         <v>430</v>
-      </c>
-      <c r="B21" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
         <v>432</v>
-      </c>
-      <c r="B22" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
         <v>434</v>
-      </c>
-      <c r="B23" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
         <v>436</v>
-      </c>
-      <c r="B24" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
+++ b/laz_verb_conjugator/notebooks/data/Test Verb Present tense.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Lazverbcon\laz_verb_conjugator\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2910D6D-A5AB-448A-A85A-1B5FF6C56C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A2910D6D-A5AB-448A-A85A-1B5FF6C56C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E32BBB0-4743-4F5F-941E-39704FE73A72}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$90</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="445">
   <si>
     <t>Laz Infinitive</t>
   </si>
@@ -862,6 +876,9 @@
     <t>iqven</t>
   </si>
   <si>
+    <t>oropu</t>
+  </si>
+  <si>
     <t>aoropen</t>
   </si>
   <si>
@@ -1258,12 +1275,33 @@
     <t>meşvelu</t>
   </si>
   <si>
+    <t>nuşvelams</t>
+  </si>
+  <si>
+    <t>nuşvelaps</t>
+  </si>
+  <si>
     <t>to help</t>
   </si>
   <si>
     <t>yardım etmek</t>
   </si>
   <si>
+    <t>ok̆itxu</t>
+  </si>
+  <si>
+    <t>ik̆itxams</t>
+  </si>
+  <si>
+    <t>ik̆itxaps</t>
+  </si>
+  <si>
+    <t>to ask/read</t>
+  </si>
+  <si>
+    <t>sormak/okumak</t>
+  </si>
+  <si>
     <t>Category:</t>
   </si>
   <si>
@@ -1340,22 +1378,13 @@
   </si>
   <si>
     <t>Çxala-Hopa</t>
-  </si>
-  <si>
-    <t>nuşvelams</t>
-  </si>
-  <si>
-    <t>nuşvelaps</t>
-  </si>
-  <si>
-    <t>oropu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1684,16 +1713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE109"/>
+  <dimension ref="A1:AE110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="C90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1775,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1826,7 +1855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +1899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="15">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1984,7 +2013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2070,7 +2099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -2096,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -2122,7 +2151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="15">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -2148,7 +2177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="15">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -2168,7 +2197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="15">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -2188,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="15">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -2214,7 +2243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="15">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2240,7 +2269,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15">
       <c r="A24" s="3" t="s">
         <v>106</v>
       </c>
@@ -2260,7 +2289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="15">
       <c r="A25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2280,7 +2309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2306,7 +2335,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>115</v>
       </c>
@@ -2332,7 +2361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -2358,7 +2387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -2403,7 +2432,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>130</v>
       </c>
@@ -2427,7 +2456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>135</v>
       </c>
@@ -2453,7 +2482,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>141</v>
       </c>
@@ -2485,7 +2514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>148</v>
       </c>
@@ -2513,7 +2542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>153</v>
       </c>
@@ -2533,7 +2562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>157</v>
       </c>
@@ -2565,7 +2594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>163</v>
       </c>
@@ -2591,7 +2620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -2617,7 +2646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -2643,7 +2672,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -2669,7 +2698,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>183</v>
       </c>
@@ -2695,7 +2724,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>188</v>
       </c>
@@ -2721,7 +2750,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -2741,7 +2770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
@@ -2767,7 +2796,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>202</v>
       </c>
@@ -2787,7 +2816,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>206</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>211</v>
       </c>
@@ -2841,7 +2870,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>216</v>
       </c>
@@ -2865,7 +2894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>219</v>
       </c>
@@ -2889,7 +2918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -2915,7 +2944,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>226</v>
       </c>
@@ -2935,7 +2964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>231</v>
       </c>
@@ -2955,7 +2984,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
@@ -2979,7 +3008,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>240</v>
       </c>
@@ -3024,7 +3053,7 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="15.75" customHeight="1">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -3044,7 +3073,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="15.75" customHeight="1">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -3064,7 +3093,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>249</v>
       </c>
@@ -3080,7 +3109,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>251</v>
       </c>
@@ -3100,7 +3129,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>255</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>257</v>
       </c>
@@ -3144,7 +3173,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>261</v>
       </c>
@@ -3168,7 +3197,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>263</v>
       </c>
@@ -3188,7 +3217,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>265</v>
       </c>
@@ -3212,7 +3241,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>267</v>
       </c>
@@ -3238,7 +3267,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>270</v>
       </c>
@@ -3258,7 +3287,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>272</v>
       </c>
@@ -3278,7 +3307,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>272</v>
       </c>
@@ -3294,15 +3323,15 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>18</v>
@@ -3314,21 +3343,21 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3340,93 +3369,93 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s">
         <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H69" t="s">
         <v>23</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>11</v>
@@ -3448,29 +3477,29 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>59</v>
@@ -3480,47 +3509,47 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>23</v>
@@ -3528,21 +3557,21 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3552,145 +3581,145 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F79" t="s">
         <v>23</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="3"/>
       <c r="J80" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>28</v>
@@ -3702,35 +3731,35 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -3746,21 +3775,21 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>28</v>
@@ -3768,61 +3797,61 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J88" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F89" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>52</v>
@@ -3840,35 +3869,35 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
       </c>
       <c r="I91" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J91" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15">
       <c r="A92" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
@@ -3878,67 +3907,67 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15">
       <c r="A93" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15">
       <c r="A94" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>233</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -3950,285 +3979,285 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F96" t="s">
         <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H96" t="s">
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J96" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J97" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>383</v>
+      </c>
+      <c r="J98" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>381</v>
       </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" t="s">
-        <v>382</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>380</v>
-      </c>
-      <c r="B99" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="J99" t="s">
         <v>384</v>
       </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" t="s">
-        <v>382</v>
-      </c>
-      <c r="J99" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J100" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
       </c>
       <c r="I101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J101" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15">
       <c r="A102" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15">
       <c r="A103" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15">
       <c r="A104" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15">
       <c r="A105" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15">
       <c r="A106" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15">
       <c r="A107" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15">
       <c r="A108" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>23</v>
@@ -4240,30 +4269,56 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="F109" t="s">
         <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J109" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>414</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>415</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" t="s">
+        <v>417</v>
+      </c>
+      <c r="J110" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4288,156 +4343,156 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
